--- a/NformTester/NformTester/keywordscripts/TestScripts.xlsx
+++ b/NformTester/NformTester/keywordscripts/TestScripts.xlsx
@@ -1352,7 +1352,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8179" uniqueCount="928">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8202" uniqueCount="930">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -4043,10 +4043,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>F</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>NformLogin</t>
   </si>
   <si>
@@ -4170,6 +4166,17 @@
   <si>
     <t>$Sys_TestObject_NformViewer$</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>;</t>
+  </si>
+  <si>
+    <t>FormInstallationWizard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D:\\01_project\\NForm\\NForm Test\\Nform_4.9\\ET\\Nform_4.9.2_ET\\CDROM\\Nform_4.9.2_ET.msi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4690,7 +4697,7 @@
   <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4698,7 +4705,7 @@
     <col min="1" max="1" width="19.625" customWidth="1"/>
     <col min="2" max="2" width="24.375" customWidth="1"/>
     <col min="5" max="5" width="23.625" customWidth="1"/>
-    <col min="6" max="6" width="23.25" customWidth="1"/>
+    <col min="6" max="6" width="27.5" customWidth="1"/>
     <col min="7" max="7" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4750,7 +4757,9 @@
       <c r="A2" s="2" t="s">
         <v>887</v>
       </c>
-      <c r="B2" s="3"/>
+      <c r="B2" s="3" t="s">
+        <v>929</v>
+      </c>
       <c r="C2" s="4">
         <v>1</v>
       </c>
@@ -4779,16 +4788,16 @@
         <v>2</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>898</v>
+        <v>927</v>
       </c>
       <c r="E3" s="4" t="s">
+        <v>923</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>926</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>924</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>927</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>925</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
@@ -4800,32 +4809,32 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="2" t="s">
+        <v>895</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>896</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>897</v>
       </c>
       <c r="C4" s="4">
         <v>3</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>891</v>
+        <v>927</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4" t="s">
+        <v>892</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>893</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="J4" s="4" t="s">
         <v>894</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>895</v>
       </c>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
@@ -4834,7 +4843,7 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="2" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B5" s="9">
         <v>40864</v>
@@ -4843,7 +4852,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>898</v>
+        <v>927</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>874</v>
@@ -4862,7 +4871,7 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="2" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B6" s="9">
         <v>41045</v>
@@ -4871,14 +4880,14 @@
         <v>5</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>898</v>
+        <v>927</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
@@ -4890,16 +4899,16 @@
     </row>
     <row r="7" spans="1:14" ht="15">
       <c r="A7" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B7" s="3">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C7" s="4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -4914,14 +4923,14 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="2" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>903</v>
+        <v>927</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>19</v>
@@ -4942,20 +4951,20 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="2" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>903</v>
+        <v>927</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>19</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="G9" s="11" t="s">
         <v>2</v>
@@ -4970,16 +4979,16 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="2" t="s">
+        <v>905</v>
+      </c>
+      <c r="B10" s="14" t="s">
         <v>906</v>
       </c>
-      <c r="B10" s="14" t="s">
-        <v>907</v>
-      </c>
       <c r="C10" s="4">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>903</v>
+        <v>927</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>695</v>
@@ -4991,13 +5000,13 @@
         <v>7</v>
       </c>
       <c r="H10" s="11" t="s">
+        <v>918</v>
+      </c>
+      <c r="I10" s="11" t="s">
         <v>919</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="J10" s="11" t="s">
         <v>920</v>
-      </c>
-      <c r="J10" s="11" t="s">
-        <v>921</v>
       </c>
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
@@ -5008,10 +5017,10 @@
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>903</v>
+        <v>927</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>695</v>
@@ -5032,14 +5041,14 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="2" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B12" s="17"/>
       <c r="C12" s="4">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>903</v>
+        <v>927</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>633</v>
@@ -5051,13 +5060,13 @@
         <v>7</v>
       </c>
       <c r="H12" s="11" t="s">
+        <v>918</v>
+      </c>
+      <c r="I12" s="11" t="s">
         <v>919</v>
       </c>
-      <c r="I12" s="11" t="s">
-        <v>920</v>
-      </c>
       <c r="J12" s="11" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="K12" s="11"/>
       <c r="L12" s="11"/>
@@ -5066,13 +5075,21 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="18" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B13" s="19"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="11"/>
+      <c r="C13" s="4">
+        <v>12</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>897</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>874</v>
+      </c>
+      <c r="F13" s="11">
+        <v>40</v>
+      </c>
       <c r="G13" s="11"/>
       <c r="H13" s="13"/>
       <c r="I13" s="11"/>
@@ -5084,14 +5101,24 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="18" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B14" s="19"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
+      <c r="C14" s="4">
+        <v>13</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>902</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>928</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>2</v>
+      </c>
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
       <c r="J14" s="11"/>
@@ -5102,13 +5129,21 @@
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="18" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B15" s="19"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="11"/>
+      <c r="C15" s="4">
+        <v>14</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>897</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>874</v>
+      </c>
+      <c r="F15" s="11">
+        <v>6</v>
+      </c>
       <c r="G15" s="11"/>
       <c r="H15" s="13"/>
       <c r="I15" s="11"/>
@@ -5120,14 +5155,24 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="18" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B16" s="19"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
+      <c r="C16" s="4">
+        <v>15</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>902</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>928</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>791</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>2</v>
+      </c>
       <c r="H16" s="13"/>
       <c r="I16" s="11"/>
       <c r="J16" s="11"/>
@@ -5138,13 +5183,21 @@
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="18" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B17" s="19"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="11"/>
+      <c r="C17" s="4">
+        <v>16</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>897</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>874</v>
+      </c>
+      <c r="F17" s="11">
+        <v>60</v>
+      </c>
       <c r="G17" s="11"/>
       <c r="H17" s="13"/>
       <c r="I17" s="11"/>
@@ -5157,13 +5210,23 @@
     <row r="18" spans="1:14">
       <c r="A18" s="18"/>
       <c r="B18" s="19" t="s">
-        <v>914</v>
-      </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
+        <v>913</v>
+      </c>
+      <c r="C18" s="4">
+        <v>17</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>902</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>928</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>792</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>132</v>
+      </c>
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
       <c r="J18" s="11"/>
@@ -5175,13 +5238,23 @@
     <row r="19" spans="1:14">
       <c r="A19" s="18"/>
       <c r="B19" s="19" t="s">
-        <v>915</v>
-      </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
+        <v>914</v>
+      </c>
+      <c r="C19" s="4">
+        <v>18</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>902</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>928</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>721</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>2</v>
+      </c>
       <c r="H19" s="13"/>
       <c r="I19" s="11"/>
       <c r="J19" s="11"/>
@@ -5192,10 +5265,10 @@
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="18" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="10"/>
@@ -5212,7 +5285,7 @@
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="18" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B21" s="19"/>
       <c r="C21" s="4"/>
@@ -5230,7 +5303,7 @@
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="18" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B22" s="19"/>
       <c r="C22" s="4"/>
@@ -5371,7 +5444,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8:D30 D3:D6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D6 D8:D30">
       <formula1>"C,F,T,;"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 G4:G5 G7:G30">
@@ -5385,6 +5458,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/NformTester/NformTester/keywordscripts/TestScripts.xlsx
+++ b/NformTester/NformTester/keywordscripts/TestScripts.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16035" windowHeight="12720"/>
@@ -1352,7 +1352,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8179" uniqueCount="928">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8178" uniqueCount="928">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -4168,7 +4168,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$Sys_TestObject_NformViewer$</t>
+    <t>$DB_Test$</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -4690,7 +4690,7 @@
   <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4787,9 +4787,7 @@
       <c r="F3" s="4" t="s">
         <v>927</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>925</v>
-      </c>
+      <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>

--- a/NformTester/NformTester/keywordscripts/TestScripts.xlsx
+++ b/NformTester/NformTester/keywordscripts/TestScripts.xlsx
@@ -1031,6 +1031,10 @@
     <definedName name="FormRun_Command_Action_PropertiesTimeout_up">'Action DataValDepend'!$TY:$TY</definedName>
     <definedName name="FormRun_Command_Action_Propertiestriangle">'Action DataValDepend'!$UA:$UA</definedName>
     <definedName name="Forms">'Form DataValDepend'!$A$1:$A$93</definedName>
+    <definedName name="FormSaveAsCancel">'Action DataValDepend'!$ASG:$ASG</definedName>
+    <definedName name="FormSaveAsClose">'Action DataValDepend'!$ASH:$ASH</definedName>
+    <definedName name="FormSaveAsFileNameText">'Action DataValDepend'!$ASI:$ASI</definedName>
+    <definedName name="FormSaveAsSave">'Action DataValDepend'!$ASF:$ASF</definedName>
     <definedName name="FormSelect_Action_Type">'Form DataValDepend'!$AG$1</definedName>
     <definedName name="FormSelect_Action_TypeCancel">'Action DataValDepend'!$RF:$RF</definedName>
     <definedName name="FormSelect_Action_TypeCol">'Form DataValDepend'!$AG:$AG</definedName>
@@ -1378,7 +1382,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8409" uniqueCount="959">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8436" uniqueCount="964">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -4293,6 +4297,25 @@
   </si>
   <si>
     <t>CommunicationGadget</t>
+  </si>
+  <si>
+    <t>FormSaveAs</t>
+  </si>
+  <si>
+    <t>Save</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cancel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FileNameText</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Close</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -5586,10 +5609,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CL131"/>
+  <dimension ref="A1:CP131"/>
   <sheetViews>
-    <sheetView topLeftCell="AD79" workbookViewId="0">
-      <selection activeCell="E131" sqref="E131"/>
+    <sheetView topLeftCell="CC1" workbookViewId="0">
+      <selection activeCell="CP1" sqref="CP1:CP1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5599,7 +5622,7 @@
     <col min="7" max="7" width="31.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:90">
+    <row r="1" spans="1:94">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5870,8 +5893,11 @@
       <c r="CL1">
         <v>1</v>
       </c>
+      <c r="CP1" t="s">
+        <v>960</v>
+      </c>
     </row>
-    <row r="2" spans="1:90">
+    <row r="2" spans="1:94">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -6091,8 +6117,11 @@
       <c r="CL2">
         <v>2</v>
       </c>
+      <c r="CP2" t="s">
+        <v>961</v>
+      </c>
     </row>
-    <row r="3" spans="1:90">
+    <row r="3" spans="1:94">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -6285,8 +6314,11 @@
       <c r="CL3">
         <v>3</v>
       </c>
+      <c r="CP3" t="s">
+        <v>962</v>
+      </c>
     </row>
-    <row r="4" spans="1:90">
+    <row r="4" spans="1:94">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -6467,8 +6499,11 @@
       <c r="CL4">
         <v>4</v>
       </c>
+      <c r="CP4" t="s">
+        <v>963</v>
+      </c>
     </row>
-    <row r="5" spans="1:90">
+    <row r="5" spans="1:94">
       <c r="A5" t="s">
         <v>161</v>
       </c>
@@ -6641,7 +6676,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:90">
+    <row r="6" spans="1:94">
       <c r="A6" t="s">
         <v>181</v>
       </c>
@@ -6811,7 +6846,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:90">
+    <row r="7" spans="1:94">
       <c r="A7" t="s">
         <v>216</v>
       </c>
@@ -6975,7 +7010,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:90">
+    <row r="8" spans="1:94">
       <c r="A8" t="s">
         <v>233</v>
       </c>
@@ -7127,7 +7162,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:90">
+    <row r="9" spans="1:94">
       <c r="A9" t="s">
         <v>259</v>
       </c>
@@ -7270,7 +7305,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:90">
+    <row r="10" spans="1:94">
       <c r="A10" t="s">
         <v>260</v>
       </c>
@@ -7395,7 +7430,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:90">
+    <row r="11" spans="1:94">
       <c r="A11" t="s">
         <v>261</v>
       </c>
@@ -7508,7 +7543,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:90">
+    <row r="12" spans="1:94">
       <c r="A12" t="s">
         <v>268</v>
       </c>
@@ -7618,7 +7653,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:90">
+    <row r="13" spans="1:94">
       <c r="A13" t="s">
         <v>279</v>
       </c>
@@ -7725,7 +7760,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:90">
+    <row r="14" spans="1:94">
       <c r="A14" t="s">
         <v>280</v>
       </c>
@@ -7805,7 +7840,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:90">
+    <row r="15" spans="1:94">
       <c r="A15" t="s">
         <v>290</v>
       </c>
@@ -7882,7 +7917,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:90">
+    <row r="16" spans="1:94">
       <c r="A16" t="s">
         <v>292</v>
       </c>
@@ -9540,6 +9575,9 @@
       </c>
     </row>
     <row r="93" spans="1:48">
+      <c r="A93" t="s">
+        <v>959</v>
+      </c>
       <c r="E93" t="s">
         <v>121</v>
       </c>
@@ -9856,15 +9894,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:ASE12"/>
+  <dimension ref="A1:ASI12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CS1" workbookViewId="0">
-      <selection activeCell="CV10" sqref="CV10"/>
+    <sheetView tabSelected="1" topLeftCell="ASB1" workbookViewId="0">
+      <selection activeCell="ASG7" sqref="ASG7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1175">
+    <row r="1" spans="1:1179">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -13381,8 +13419,20 @@
       <c r="ASE1" t="s">
         <v>2</v>
       </c>
+      <c r="ASF1" t="s">
+        <v>2</v>
+      </c>
+      <c r="ASG1" t="s">
+        <v>2</v>
+      </c>
+      <c r="ASH1" t="s">
+        <v>2</v>
+      </c>
+      <c r="ASI1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:1175">
+    <row r="2" spans="1:1179">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -16899,8 +16949,20 @@
       <c r="ASE2" t="s">
         <v>5</v>
       </c>
+      <c r="ASF2" t="s">
+        <v>5</v>
+      </c>
+      <c r="ASG2" t="s">
+        <v>5</v>
+      </c>
+      <c r="ASH2" t="s">
+        <v>5</v>
+      </c>
+      <c r="ASI2" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="1:1175">
+    <row r="3" spans="1:1179">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -20417,8 +20479,20 @@
       <c r="ASE3" t="s">
         <v>6</v>
       </c>
+      <c r="ASF3" t="s">
+        <v>6</v>
+      </c>
+      <c r="ASG3" t="s">
+        <v>6</v>
+      </c>
+      <c r="ASH3" t="s">
+        <v>6</v>
+      </c>
+      <c r="ASI3" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="4" spans="1:1175">
+    <row r="4" spans="1:1179">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -23935,8 +24009,20 @@
       <c r="ASE4" t="s">
         <v>7</v>
       </c>
+      <c r="ASF4" t="s">
+        <v>7</v>
+      </c>
+      <c r="ASG4" t="s">
+        <v>7</v>
+      </c>
+      <c r="ASH4" t="s">
+        <v>7</v>
+      </c>
+      <c r="ASI4" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="5" spans="1:1175">
+    <row r="5" spans="1:1179">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -27453,8 +27539,20 @@
       <c r="ASE5" t="s">
         <v>8</v>
       </c>
+      <c r="ASF5" t="s">
+        <v>8</v>
+      </c>
+      <c r="ASG5" t="s">
+        <v>8</v>
+      </c>
+      <c r="ASH5" t="s">
+        <v>8</v>
+      </c>
+      <c r="ASI5" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="6" spans="1:1175">
+    <row r="6" spans="1:1179">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -28904,8 +29002,11 @@
       <c r="ASB6" t="s">
         <v>7</v>
       </c>
+      <c r="ASI6" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="7" spans="1:1175">
+    <row r="7" spans="1:1179">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -30280,8 +30381,11 @@
       <c r="ASB7" t="s">
         <v>8</v>
       </c>
+      <c r="ASI7" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="8" spans="1:1175">
+    <row r="8" spans="1:1179">
       <c r="AR8" t="s">
         <v>6</v>
       </c>
@@ -30457,7 +30561,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:1175">
+    <row r="9" spans="1:1179">
       <c r="AR9" t="s">
         <v>7</v>
       </c>
@@ -30633,7 +30737,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:1175">
+    <row r="10" spans="1:1179">
       <c r="AR10" t="s">
         <v>8</v>
       </c>
@@ -30773,7 +30877,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:1175">
+    <row r="11" spans="1:1179">
       <c r="AR11" t="s">
         <v>59</v>
       </c>
@@ -30880,7 +30984,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:1175">
+    <row r="12" spans="1:1179">
       <c r="AR12" t="s">
         <v>61</v>
       </c>

--- a/NformTester/NformTester/keywordscripts/TestScripts.xlsx
+++ b/NformTester/NformTester/keywordscripts/TestScripts.xlsx
@@ -1031,10 +1031,6 @@
     <definedName name="FormRun_Command_Action_PropertiesTimeout_up">'Action DataValDepend'!$TY:$TY</definedName>
     <definedName name="FormRun_Command_Action_Propertiestriangle">'Action DataValDepend'!$UA:$UA</definedName>
     <definedName name="Forms">'Form DataValDepend'!$A$1:$A$93</definedName>
-    <definedName name="FormSaveAsCancel">'Action DataValDepend'!$ASG:$ASG</definedName>
-    <definedName name="FormSaveAsClose">'Action DataValDepend'!$ASH:$ASH</definedName>
-    <definedName name="FormSaveAsFileNameText">'Action DataValDepend'!$ASI:$ASI</definedName>
-    <definedName name="FormSaveAsSave">'Action DataValDepend'!$ASF:$ASF</definedName>
     <definedName name="FormSelect_Action_Type">'Form DataValDepend'!$AG$1</definedName>
     <definedName name="FormSelect_Action_TypeCancel">'Action DataValDepend'!$RF:$RF</definedName>
     <definedName name="FormSelect_Action_TypeCol">'Form DataValDepend'!$AG:$AG</definedName>
@@ -1382,7 +1378,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8436" uniqueCount="964">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8409" uniqueCount="959">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -4297,25 +4293,6 @@
   </si>
   <si>
     <t>CommunicationGadget</t>
-  </si>
-  <si>
-    <t>FormSaveAs</t>
-  </si>
-  <si>
-    <t>Save</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cancel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FileNameText</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Close</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -5609,10 +5586,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CP131"/>
+  <dimension ref="A1:CL131"/>
   <sheetViews>
-    <sheetView topLeftCell="CC1" workbookViewId="0">
-      <selection activeCell="CP1" sqref="CP1:CP1048576"/>
+    <sheetView topLeftCell="AD79" workbookViewId="0">
+      <selection activeCell="E131" sqref="E131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5622,7 +5599,7 @@
     <col min="7" max="7" width="31.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:94">
+    <row r="1" spans="1:90">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5893,11 +5870,8 @@
       <c r="CL1">
         <v>1</v>
       </c>
-      <c r="CP1" t="s">
-        <v>960</v>
-      </c>
     </row>
-    <row r="2" spans="1:94">
+    <row r="2" spans="1:90">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -6117,11 +6091,8 @@
       <c r="CL2">
         <v>2</v>
       </c>
-      <c r="CP2" t="s">
-        <v>961</v>
-      </c>
     </row>
-    <row r="3" spans="1:94">
+    <row r="3" spans="1:90">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -6314,11 +6285,8 @@
       <c r="CL3">
         <v>3</v>
       </c>
-      <c r="CP3" t="s">
-        <v>962</v>
-      </c>
     </row>
-    <row r="4" spans="1:94">
+    <row r="4" spans="1:90">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -6499,11 +6467,8 @@
       <c r="CL4">
         <v>4</v>
       </c>
-      <c r="CP4" t="s">
-        <v>963</v>
-      </c>
     </row>
-    <row r="5" spans="1:94">
+    <row r="5" spans="1:90">
       <c r="A5" t="s">
         <v>161</v>
       </c>
@@ -6676,7 +6641,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:94">
+    <row r="6" spans="1:90">
       <c r="A6" t="s">
         <v>181</v>
       </c>
@@ -6846,7 +6811,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:94">
+    <row r="7" spans="1:90">
       <c r="A7" t="s">
         <v>216</v>
       </c>
@@ -7010,7 +6975,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:94">
+    <row r="8" spans="1:90">
       <c r="A8" t="s">
         <v>233</v>
       </c>
@@ -7162,7 +7127,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:94">
+    <row r="9" spans="1:90">
       <c r="A9" t="s">
         <v>259</v>
       </c>
@@ -7305,7 +7270,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:94">
+    <row r="10" spans="1:90">
       <c r="A10" t="s">
         <v>260</v>
       </c>
@@ -7430,7 +7395,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:94">
+    <row r="11" spans="1:90">
       <c r="A11" t="s">
         <v>261</v>
       </c>
@@ -7543,7 +7508,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:94">
+    <row r="12" spans="1:90">
       <c r="A12" t="s">
         <v>268</v>
       </c>
@@ -7653,7 +7618,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:94">
+    <row r="13" spans="1:90">
       <c r="A13" t="s">
         <v>279</v>
       </c>
@@ -7760,7 +7725,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:94">
+    <row r="14" spans="1:90">
       <c r="A14" t="s">
         <v>280</v>
       </c>
@@ -7840,7 +7805,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:94">
+    <row r="15" spans="1:90">
       <c r="A15" t="s">
         <v>290</v>
       </c>
@@ -7917,7 +7882,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:94">
+    <row r="16" spans="1:90">
       <c r="A16" t="s">
         <v>292</v>
       </c>
@@ -9575,9 +9540,6 @@
       </c>
     </row>
     <row r="93" spans="1:48">
-      <c r="A93" t="s">
-        <v>959</v>
-      </c>
       <c r="E93" t="s">
         <v>121</v>
       </c>
@@ -9894,15 +9856,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:ASI12"/>
+  <dimension ref="A1:ASE12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="ASB1" workbookViewId="0">
-      <selection activeCell="ASG7" sqref="ASG7"/>
+    <sheetView tabSelected="1" topLeftCell="CS1" workbookViewId="0">
+      <selection activeCell="CV10" sqref="CV10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1179">
+    <row r="1" spans="1:1175">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -13419,20 +13381,8 @@
       <c r="ASE1" t="s">
         <v>2</v>
       </c>
-      <c r="ASF1" t="s">
-        <v>2</v>
-      </c>
-      <c r="ASG1" t="s">
-        <v>2</v>
-      </c>
-      <c r="ASH1" t="s">
-        <v>2</v>
-      </c>
-      <c r="ASI1" t="s">
-        <v>2</v>
-      </c>
     </row>
-    <row r="2" spans="1:1179">
+    <row r="2" spans="1:1175">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -16949,20 +16899,8 @@
       <c r="ASE2" t="s">
         <v>5</v>
       </c>
-      <c r="ASF2" t="s">
-        <v>5</v>
-      </c>
-      <c r="ASG2" t="s">
-        <v>5</v>
-      </c>
-      <c r="ASH2" t="s">
-        <v>5</v>
-      </c>
-      <c r="ASI2" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="3" spans="1:1179">
+    <row r="3" spans="1:1175">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -20479,20 +20417,8 @@
       <c r="ASE3" t="s">
         <v>6</v>
       </c>
-      <c r="ASF3" t="s">
-        <v>6</v>
-      </c>
-      <c r="ASG3" t="s">
-        <v>6</v>
-      </c>
-      <c r="ASH3" t="s">
-        <v>6</v>
-      </c>
-      <c r="ASI3" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="4" spans="1:1179">
+    <row r="4" spans="1:1175">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -24009,20 +23935,8 @@
       <c r="ASE4" t="s">
         <v>7</v>
       </c>
-      <c r="ASF4" t="s">
-        <v>7</v>
-      </c>
-      <c r="ASG4" t="s">
-        <v>7</v>
-      </c>
-      <c r="ASH4" t="s">
-        <v>7</v>
-      </c>
-      <c r="ASI4" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="5" spans="1:1179">
+    <row r="5" spans="1:1175">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -27539,20 +27453,8 @@
       <c r="ASE5" t="s">
         <v>8</v>
       </c>
-      <c r="ASF5" t="s">
-        <v>8</v>
-      </c>
-      <c r="ASG5" t="s">
-        <v>8</v>
-      </c>
-      <c r="ASH5" t="s">
-        <v>8</v>
-      </c>
-      <c r="ASI5" t="s">
-        <v>6</v>
-      </c>
     </row>
-    <row r="6" spans="1:1179">
+    <row r="6" spans="1:1175">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -29002,11 +28904,8 @@
       <c r="ASB6" t="s">
         <v>7</v>
       </c>
-      <c r="ASI6" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="7" spans="1:1179">
+    <row r="7" spans="1:1175">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -30381,11 +30280,8 @@
       <c r="ASB7" t="s">
         <v>8</v>
       </c>
-      <c r="ASI7" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="8" spans="1:1179">
+    <row r="8" spans="1:1175">
       <c r="AR8" t="s">
         <v>6</v>
       </c>
@@ -30561,7 +30457,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:1179">
+    <row r="9" spans="1:1175">
       <c r="AR9" t="s">
         <v>7</v>
       </c>
@@ -30737,7 +30633,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:1179">
+    <row r="10" spans="1:1175">
       <c r="AR10" t="s">
         <v>8</v>
       </c>
@@ -30877,7 +30773,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:1179">
+    <row r="11" spans="1:1175">
       <c r="AR11" t="s">
         <v>59</v>
       </c>
@@ -30984,7 +30880,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:1179">
+    <row r="12" spans="1:1175">
       <c r="AR12" t="s">
         <v>61</v>
       </c>

--- a/NformTester/NformTester/keywordscripts/TestScripts.xlsx
+++ b/NformTester/NformTester/keywordscripts/TestScripts.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16035" windowHeight="12720" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16035" windowHeight="12720"/>
   </bookViews>
   <sheets>
     <sheet name="Scripts" sheetId="4" r:id="rId1"/>
@@ -1378,7 +1378,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8409" uniqueCount="959">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8418" uniqueCount="966">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -4201,10 +4201,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>D:\\01_project\\NForm\\NForm Test\\Nform_4.9\\ET\\Nform_4.9.2_ET\\CDROM\\Nform_4.9.2_ET.msi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Apply</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4293,6 +4289,36 @@
   </si>
   <si>
     <t>CommunicationGadget</t>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\Nform\log\Server.log</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error </t>
+  </si>
+  <si>
+    <t>1-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\\Nform\\bin\\NformViewer.exe</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\Viewer.log</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Error </t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4810,10 +4836,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N30"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="F4" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4823,6 +4849,7 @@
     <col min="5" max="5" width="23.625" customWidth="1"/>
     <col min="6" max="6" width="27.5" customWidth="1"/>
     <col min="7" max="7" width="20.5" customWidth="1"/>
+    <col min="8" max="8" width="19.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -4874,7 +4901,7 @@
         <v>887</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>929</v>
+        <v>962</v>
       </c>
       <c r="C2" s="4">
         <v>1</v>
@@ -4904,20 +4931,22 @@
         <v>2</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>927</v>
+        <v>963</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>923</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>926</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>924</v>
-      </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
+        <v>875</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4" t="s">
+        <v>959</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>960</v>
+      </c>
+      <c r="J3" s="4" t="b">
+        <v>0</v>
+      </c>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
@@ -4934,23 +4963,21 @@
         <v>3</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>927</v>
+        <v>958</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>891</v>
-      </c>
+        <v>875</v>
+      </c>
+      <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4" t="s">
-        <v>892</v>
+        <v>964</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>893</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>894</v>
+        <v>965</v>
+      </c>
+      <c r="J4" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
@@ -4971,12 +4998,14 @@
         <v>927</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>874</v>
-      </c>
-      <c r="F5" s="4">
-        <v>4</v>
-      </c>
-      <c r="G5" s="4"/>
+        <v>923</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>926</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>924</v>
+      </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
@@ -4999,35 +5028,45 @@
         <v>927</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>925</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4" t="s">
-        <v>924</v>
-      </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>891</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4" t="s">
+        <v>892</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>893</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>894</v>
+      </c>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
       <c r="N6" s="6"/>
     </row>
-    <row r="7" spans="1:14" ht="15">
+    <row r="7" spans="1:14">
       <c r="A7" s="2" t="s">
         <v>901</v>
       </c>
       <c r="B7" s="3">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C7" s="4">
         <v>6</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>899</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
+      <c r="D7" s="7" t="s">
+        <v>927</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>874</v>
+      </c>
+      <c r="F7" s="4">
+        <v>4</v>
+      </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
@@ -5041,21 +5080,21 @@
       <c r="A8" s="2" t="s">
         <v>903</v>
       </c>
-      <c r="B8" s="8"/>
+      <c r="B8" s="8" t="s">
+        <v>961</v>
+      </c>
       <c r="C8" s="4">
         <v>7</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="7" t="s">
         <v>927</v>
       </c>
-      <c r="E8" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>2</v>
+      <c r="E8" s="4" t="s">
+        <v>925</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4" t="s">
+        <v>924</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
@@ -5065,7 +5104,7 @@
       <c r="M8" s="4"/>
       <c r="N8" s="6"/>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" ht="15">
       <c r="A9" s="2" t="s">
         <v>904</v>
       </c>
@@ -5073,25 +5112,19 @@
       <c r="C9" s="4">
         <v>8</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>927</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>921</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>2</v>
-      </c>
+      <c r="D9" s="5" t="s">
+        <v>899</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="12"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="6"/>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="2" t="s">
@@ -5107,27 +5140,21 @@
         <v>927</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>695</v>
+        <v>19</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>699</v>
+        <v>22</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>918</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>919</v>
-      </c>
-      <c r="J10" s="11" t="s">
-        <v>920</v>
-      </c>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="12"/>
+        <v>2</v>
+      </c>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="6"/>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="15"/>
@@ -5139,17 +5166,17 @@
         <v>927</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>695</v>
+        <v>19</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>244</v>
+        <v>921</v>
       </c>
       <c r="G11" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
       <c r="K11" s="11"/>
       <c r="L11" s="11"/>
       <c r="M11" s="11"/>
@@ -5167,10 +5194,10 @@
         <v>927</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>633</v>
+        <v>695</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>263</v>
+        <v>699</v>
       </c>
       <c r="G12" s="11" t="s">
         <v>7</v>
@@ -5182,7 +5209,7 @@
         <v>919</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="K12" s="11"/>
       <c r="L12" s="11"/>
@@ -5198,16 +5225,18 @@
         <v>12</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>897</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>874</v>
-      </c>
-      <c r="F13" s="11">
-        <v>40</v>
-      </c>
-      <c r="G13" s="11"/>
-      <c r="H13" s="13"/>
+        <v>927</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>695</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H13" s="11"/>
       <c r="I13" s="11"/>
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
@@ -5224,20 +5253,26 @@
         <v>13</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>902</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>928</v>
+        <v>927</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>633</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="11"/>
+        <v>7</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>918</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>919</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>922</v>
+      </c>
       <c r="K14" s="11"/>
       <c r="L14" s="11"/>
       <c r="M14" s="11"/>
@@ -5258,7 +5293,7 @@
         <v>874</v>
       </c>
       <c r="F15" s="11">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="G15" s="11"/>
       <c r="H15" s="13"/>
@@ -5284,13 +5319,13 @@
         <v>928</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>791</v>
+        <v>236</v>
       </c>
       <c r="G16" s="11" t="s">
         <v>2</v>
       </c>
       <c r="H16" s="13"/>
-      <c r="I16" s="11"/>
+      <c r="I16" s="13"/>
       <c r="J16" s="11"/>
       <c r="K16" s="11"/>
       <c r="L16" s="11"/>
@@ -5312,7 +5347,7 @@
         <v>874</v>
       </c>
       <c r="F17" s="11">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="G17" s="11"/>
       <c r="H17" s="13"/>
@@ -5338,13 +5373,13 @@
         <v>928</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>132</v>
+        <v>2</v>
       </c>
       <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
+      <c r="I18" s="11"/>
       <c r="J18" s="11"/>
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
@@ -5360,17 +5395,15 @@
         <v>18</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>928</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>721</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>2</v>
-      </c>
+        <v>874</v>
+      </c>
+      <c r="F19" s="11">
+        <v>60</v>
+      </c>
+      <c r="G19" s="11"/>
       <c r="H19" s="13"/>
       <c r="I19" s="11"/>
       <c r="J19" s="11"/>
@@ -5386,17 +5419,21 @@
       <c r="B20" s="19" t="s">
         <v>906</v>
       </c>
-      <c r="C20" s="4"/>
+      <c r="C20" s="4">
+        <v>19</v>
+      </c>
       <c r="D20" s="10" t="s">
-        <v>956</v>
+        <v>902</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>181</v>
+        <v>928</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>954</v>
-      </c>
-      <c r="G20" s="11"/>
+        <v>792</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>132</v>
+      </c>
       <c r="H20" s="13"/>
       <c r="I20" s="13"/>
       <c r="J20" s="11"/>
@@ -5410,13 +5447,23 @@
         <v>916</v>
       </c>
       <c r="B21" s="19"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
+      <c r="C21" s="4">
+        <v>20</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>902</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>928</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>721</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>2</v>
+      </c>
       <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
+      <c r="I21" s="11"/>
       <c r="J21" s="11"/>
       <c r="K21" s="11"/>
       <c r="L21" s="11"/>
@@ -5428,10 +5475,18 @@
         <v>917</v>
       </c>
       <c r="B22" s="19"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="11"/>
+      <c r="C22" s="4">
+        <v>21</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>955</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>953</v>
+      </c>
       <c r="G22" s="11"/>
       <c r="H22" s="13"/>
       <c r="I22" s="13"/>
@@ -5512,34 +5567,34 @@
       <c r="H27" s="13"/>
       <c r="I27" s="13"/>
       <c r="J27" s="11"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="6"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="12"/>
     </row>
     <row r="28" spans="1:14">
       <c r="C28" s="4"/>
       <c r="D28" s="10"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="6"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="12"/>
     </row>
     <row r="29" spans="1:14">
       <c r="C29" s="4"/>
       <c r="D29" s="10"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="11"/>
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
@@ -5554,28 +5609,54 @@
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="6"/>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="D31" s="10"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="6"/>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="D32" s="10"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="N2:N29">
-    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="N2:N31">
+    <cfRule type="cellIs" dxfId="1" priority="3" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="4" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D6 D8:D30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10:D32 D3:D8">
       <formula1>"C,F,T,;"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 G4:G5 G7:G30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:G7 G9:G32 G2:G4">
       <formula1>INDIRECT(SUBSTITUTE(E2&amp;F2," ",""))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 F4:F30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F32 F2:F4">
       <formula1>OFFSET(INDIRECT($E2),0,0,COUNTA(INDIRECT(E2&amp;"Col")),1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E32">
       <formula1>Forms</formula1>
     </dataValidation>
   </dataValidations>
@@ -8744,7 +8825,7 @@
         <v>64</v>
       </c>
       <c r="G38" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="AV38" t="s">
         <v>540</v>
@@ -8764,7 +8845,7 @@
         <v>65</v>
       </c>
       <c r="G39" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="AV39" t="s">
         <v>541</v>
@@ -8784,7 +8865,7 @@
         <v>66</v>
       </c>
       <c r="G40" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="AV40" t="s">
         <v>542</v>
@@ -8804,7 +8885,7 @@
         <v>67</v>
       </c>
       <c r="G41" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="AV41" t="s">
         <v>543</v>
@@ -8824,7 +8905,7 @@
         <v>68</v>
       </c>
       <c r="G42" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="AV42" t="s">
         <v>544</v>
@@ -8844,7 +8925,7 @@
         <v>69</v>
       </c>
       <c r="G43" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="AV43" t="s">
         <v>545</v>
@@ -8864,7 +8945,7 @@
         <v>70</v>
       </c>
       <c r="G44" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="AV44" t="s">
         <v>546</v>
@@ -8884,7 +8965,7 @@
         <v>71</v>
       </c>
       <c r="G45" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="AV45" t="s">
         <v>547</v>
@@ -8904,7 +8985,7 @@
         <v>72</v>
       </c>
       <c r="G46" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="AV46" t="s">
         <v>548</v>
@@ -8924,7 +9005,7 @@
         <v>73</v>
       </c>
       <c r="G47" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="AV47" t="s">
         <v>549</v>
@@ -8944,7 +9025,7 @@
         <v>74</v>
       </c>
       <c r="G48" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="AV48" t="s">
         <v>550</v>
@@ -8964,7 +9045,7 @@
         <v>75</v>
       </c>
       <c r="G49" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="AV49" t="s">
         <v>551</v>
@@ -8984,7 +9065,7 @@
         <v>15</v>
       </c>
       <c r="G50" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="AV50" t="s">
         <v>552</v>
@@ -9004,7 +9085,7 @@
         <v>76</v>
       </c>
       <c r="G51" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="AV51" t="s">
         <v>553</v>
@@ -9024,7 +9105,7 @@
         <v>77</v>
       </c>
       <c r="G52" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="AV52" t="s">
         <v>554</v>
@@ -9044,7 +9125,7 @@
         <v>78</v>
       </c>
       <c r="G53" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="AV53" t="s">
         <v>555</v>
@@ -9064,7 +9145,7 @@
         <v>79</v>
       </c>
       <c r="G54" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="AV54" t="s">
         <v>556</v>
@@ -9084,7 +9165,7 @@
         <v>80</v>
       </c>
       <c r="G55" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="AV55" t="s">
         <v>557</v>
@@ -9104,7 +9185,7 @@
         <v>81</v>
       </c>
       <c r="G56" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="AV56" t="s">
         <v>558</v>
@@ -9121,7 +9202,7 @@
         <v>82</v>
       </c>
       <c r="G57" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="AV57" t="s">
         <v>559</v>
@@ -9138,7 +9219,7 @@
         <v>83</v>
       </c>
       <c r="G58" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="AV58" t="s">
         <v>560</v>
@@ -9155,7 +9236,7 @@
         <v>84</v>
       </c>
       <c r="G59" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="AV59" t="s">
         <v>561</v>
@@ -9172,7 +9253,7 @@
         <v>85</v>
       </c>
       <c r="G60" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="AV60" t="s">
         <v>562</v>
@@ -9189,7 +9270,7 @@
         <v>86</v>
       </c>
       <c r="G61" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="AV61" t="s">
         <v>563</v>
@@ -9203,7 +9284,7 @@
         <v>87</v>
       </c>
       <c r="G62" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="AV62" t="s">
         <v>564</v>
@@ -9837,7 +9918,7 @@
     </row>
     <row r="130" spans="5:48">
       <c r="E130" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="AV130" t="s">
         <v>626</v>
@@ -9845,7 +9926,7 @@
     </row>
     <row r="131" spans="5:48">
       <c r="E131" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
   </sheetData>
@@ -9858,7 +9939,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:ASE12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CS1" workbookViewId="0">
+    <sheetView topLeftCell="CS1" workbookViewId="0">
       <selection activeCell="CV10" sqref="CV10"/>
     </sheetView>
   </sheetViews>
@@ -29090,7 +29171,7 @@
         <v>8</v>
       </c>
       <c r="GW7" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="GZ7" t="s">
         <v>8</v>

--- a/NformTester/NformTester/keywordscripts/TestScripts.xlsx
+++ b/NformTester/NformTester/keywordscripts/TestScripts.xlsx
@@ -1378,7 +1378,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8418" uniqueCount="966">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8418" uniqueCount="965">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -4311,10 +4311,6 @@
   <si>
     <t>;</t>
     <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>E:\Viewer.log</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Error </t>
@@ -4838,8 +4834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F4" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4971,10 +4967,10 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4" t="s">
+        <v>959</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>964</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>965</v>
       </c>
       <c r="J4" s="4" t="b">
         <v>0</v>

--- a/NformTester/NformTester/keywordscripts/TestScripts.xlsx
+++ b/NformTester/NformTester/keywordscripts/TestScripts.xlsx
@@ -1378,7 +1378,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8418" uniqueCount="965">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8420" uniqueCount="967">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -4314,6 +4314,14 @@
   </si>
   <si>
     <t xml:space="preserve">Error </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pre-condition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\\Automation-2014-11\\NformTestMain\\NformTester\\NformTester\\precondition_default.xml</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4421,7 +4429,7 @@
       </gradientFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -4455,6 +4463,17 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -4518,9 +4537,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4834,8 +4851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5493,8 +5510,12 @@
       <c r="N22" s="12"/>
     </row>
     <row r="23" spans="1:14">
-      <c r="A23" s="20"/>
-      <c r="B23" s="20"/>
+      <c r="A23" s="18" t="s">
+        <v>965</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>966</v>
+      </c>
       <c r="C23" s="4"/>
       <c r="D23" s="10"/>
       <c r="E23" s="13"/>
@@ -5509,8 +5530,8 @@
       <c r="N23" s="12"/>
     </row>
     <row r="24" spans="1:14">
-      <c r="A24" s="20"/>
-      <c r="B24" s="20"/>
+      <c r="A24" s="18"/>
+      <c r="B24" s="19"/>
       <c r="C24" s="4"/>
       <c r="D24" s="10"/>
       <c r="E24" s="13"/>
@@ -5525,8 +5546,8 @@
       <c r="N24" s="12"/>
     </row>
     <row r="25" spans="1:14">
-      <c r="A25" s="20"/>
-      <c r="B25" s="20"/>
+      <c r="A25" s="18"/>
+      <c r="B25" s="19"/>
       <c r="C25" s="4"/>
       <c r="D25" s="10"/>
       <c r="E25" s="13"/>
@@ -5541,6 +5562,8 @@
       <c r="N25" s="12"/>
     </row>
     <row r="26" spans="1:14">
+      <c r="A26" s="18"/>
+      <c r="B26" s="19"/>
       <c r="C26" s="4"/>
       <c r="D26" s="10"/>
       <c r="E26" s="13"/>
@@ -5555,6 +5578,8 @@
       <c r="N26" s="12"/>
     </row>
     <row r="27" spans="1:14">
+      <c r="A27" s="18"/>
+      <c r="B27" s="19"/>
       <c r="C27" s="4"/>
       <c r="D27" s="10"/>
       <c r="E27" s="13"/>
@@ -5569,6 +5594,8 @@
       <c r="N27" s="12"/>
     </row>
     <row r="28" spans="1:14">
+      <c r="A28" s="20"/>
+      <c r="B28" s="19"/>
       <c r="C28" s="4"/>
       <c r="D28" s="10"/>
       <c r="E28" s="13"/>

--- a/NformTester/NformTester/keywordscripts/TestScripts.xlsx
+++ b/NformTester/NformTester/keywordscripts/TestScripts.xlsx
@@ -4321,7 +4321,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>C:\\Automation-2014-11\\NformTestMain\\NformTester\\NformTester\\precondition_default.xml</t>
+    <t>C:\\Automation-2014-11\\NformTestMain\\NformTester\\NformTester\\precondition_license.xml</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4852,7 +4852,7 @@
   <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
